--- a/Question_Set2/Software skills/IBM Watson.xlsx
+++ b/Question_Set2/Software skills/IBM Watson.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'To connect your app to an existing database, you check the resource summary, as shown in the image below. You can see multiple resources. Which resources in the summary are database aliases?', 'ques_type': 2, 'options': ['Gaming-stars and gaming-stars-bot', 'gaming-stars-bot-cloudantNoSQLDB and gaming-stars-bot-cloudantNoSQLDB', 'Cloudant-pb and Cloudant-xl', 'Watson Assistant-gv and Watson Discovery-o9'], 'score': 'gaming-stars-bot-cloudantNoSQLDB and gaming-stars-bot-cloudantNoSQLDB'}, {'title': 'Your company is using IBM Watson Assistant to manage customer support questions for one of its products. Management would like to add the same solution to five other products. However, the questions will be mostly the same.  How would you scale IBM Watson Assistant?', 'ques_type': 2, 'options': ['Create a new instance for each product.', 'Use the same instance and create a new assistant for each product.', 'Add a context variable so the existing assistant knows which product is currently discussed.', 'Create a new dialog node branch for each product.'], 'score': 'Add a context variable so the existing assistant knows which product is currently discussed.'}, {'title': 'You are leading a meeting about how your client can utilize IBM Watson in their company. The company is an online retailer selling premium accessories. They have asked you to create several modules for them, and they request that you let them know which of their desired modules are impossible to make using IBM Watson.  Which of these modules are outside the scope of IBM Watson functionality?', 'ques_type': 2, 'options': ['A customer support chatbot.', 'A cognitive search engine to search for products.', 'A search engine that finds products based on similar images.', 'A machine-learning model that recommends products.'], 'score': 'A search engine that finds products based on similar images.'}, {'title': "You are building an IBM Watson Assistant chatbot for your company. The chatbot has to be able to give a short description of each of the company's 10 employees. What is the fastest way to create this functionality?", 'ques_type': 2, 'options': ['Create an entity @employee and a dialog node with a story for each employee.', 'Connect to a database with employees and retrieve stories based on a wildcard search.', 'Connect to your company’s website and scrape all empty data.', 'Connect to LinkedIn API and search for the company’s employees and their descriptions there.'], 'score': 'Create an entity @employee and a dialog node with a story for each employee.'}]</t>
+    <t>questions = [
+    {
+        "title": "To connect your app to an existing database, you check the resource summary, as shown in the image below. You can see multiple resources. Which resources in the summary are database aliases?",
+        "ques_type": 2,
+        "options": [
+            "Gaming-stars and gaming-stars-bot",
+            "gaming-stars-bot-cloudantNoSQLDB and gaming-stars-bot-cloudantNoSQLDB",
+            "Cloudant-pb and Cloudant-xl",
+            "Watson Assistant-gv and Watson Discovery-o9"
+        ],
+        "score": "gaming-stars-bot-cloudantNoSQLDB and gaming-stars-bot-cloudantNoSQLDB"
+    },
+    {
+        "title": "Your company is using IBM Watson Assistant to manage customer support questions for one of its products. Management would like to add the same solution to five other products. However, the questions will be mostly the same.  How would you scale IBM Watson Assistant?",
+        "ques_type": 2,
+        "options": [
+            "Create a new instance for each product.",
+            "Use the same instance and create a new assistant for each product.",
+            "Add a context variable so the existing assistant knows which product is currently discussed.",
+            "Create a new dialog node branch for each product."
+        ],
+        "score": "Add a context variable so the existing assistant knows which product is currently discussed."
+    },
+    {
+        "title": "You are leading a meeting about how your client can utilize IBM Watson in their company. The company is an online retailer selling premium accessories. They have asked you to create several modules for them, and they request that you let them know which of their desired modules are impossible to make using IBM Watson.  Which of these modules are outside the scope of IBM Watson functionality?",
+        "ques_type": 2,
+        "options": [
+            "A customer support chatbot.",
+            "A cognitive search engine to search for products.",
+            "A search engine that finds products based on similar images.",
+            "A machine-learning model that recommends products."
+        ],
+        "score": "A search engine that finds products based on similar images."
+    },
+    {
+        "title": "You are building an IBM Watson Assistant chatbot for your company. The chatbot has to be able to give a short description of each of the company's 10 employees. What is the fastest way to create this functionality?",
+        "ques_type": 2,
+        "options": [
+            "Create an entity @employee and a dialog node with a story for each employee.",
+            "Connect to a database with employees and retrieve stories based on a wildcard search.",
+            "Connect to your company\u2019s website and scrape all empty data.",
+            "Connect to LinkedIn API and search for the company\u2019s employees and their descriptions there."
+        ],
+        "score": "Create an entity @employee and a dialog node with a story for each employee."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
